--- a/test.xlsx
+++ b/test.xlsx
@@ -34,10 +34,100 @@
     <x:t>OID</x:t>
   </x:si>
   <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kinh_te</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nguyen Van A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1/1/2006 12:00:00 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hung Yen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0351fafd-c7cf-421e-832f-c60dada5fe9c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ngoai_ngu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nguyen Van U</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1/1/2005 12:00:00 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06057b7b-a174-4a15-abff-9743e5c909b0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nguyen Van E</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1/5/2002 12:00:00 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ha Noi 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0d572b8f-52b9-40b1-88e0-1f2d3547c079</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CNTT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nguyen Van G</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1/7/2003 12:00:00 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ha Noi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1c2ab78c-ff52-4a2e-aa70-e0dedcab90fb</x:t>
+  </x:si>
+  <x:si>
     <x:t>2</x:t>
   </x:si>
   <x:si>
-    <x:t>CNTT</x:t>
+    <x:t>1/8/2005 12:00:00 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ha Noi 6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3586dcdd-b2a6-4133-833d-19c5859c9fd6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nguyen Van F</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1/6/2001 12:00:00 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ha Noi 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3c87a4ff-465d-4552-a9cd-318369bf6e39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nguyen Van D</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1/4/2005 12:00:00 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>418d2bca-04bf-491b-8560-27ff2e37e7e8</x:t>
   </x:si>
   <x:si>
     <x:t>Nguyen Van B</x:t>
@@ -49,97 +139,16 @@
     <x:t>Ha Noi 2</x:t>
   </x:si>
   <x:si>
-    <x:t>123031a8-fd53-4b49-95a4-4c33ceec77dc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ngoai_ngu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nguyen Van E</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1/5/2002 12:00:00 AM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ha Noi 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1602386b-8241-41b5-acfa-ba25493779fd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>kinh_te</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nguyen Van A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1/1/2006 12:00:00 AM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hung Yen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28c4a8bb-03ee-4c4c-83b8-51c38534359d</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nguyen Van G</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1/7/2003 12:00:00 AM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ha Noi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6c31f2c5-1a90-42d6-8c1f-17daa3eb0083</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nguyen Van F</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1/6/2001 12:00:00 AM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ha Noi 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>957dbb65-e318-4652-b984-8113f2d889b2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1/8/2005 12:00:00 AM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ha Noi 6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ad72df0e-45af-41f1-ac97-759ba38e57c0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nguyen Van D</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1/4/2005 12:00:00 AM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bd2ab4ff-6091-40d8-98db-3b6f487b6ad4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nguyen Van U</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1/1/2005 12:00:00 AM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0fb79f4a-825d-41d2-a139-9a0ad4e620cb</x:t>
+    <x:t>f67bdf6f-b8a2-4729-86d3-de00a972cf7b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Luong Van T</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2002-01-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f9441518-3ff8-405c-894b-7e764c1931ca</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -490,7 +499,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F9"/>
+  <x:dimension ref="A1:F10"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -550,81 +559,81 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
         <x:v>16</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
       <x:c r="A4" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="s">
+      <x:c r="E4" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="D4" s="0" t="s">
+      <x:c r="F4" s="0" t="s">
         <x:v>20</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="D5" s="0" t="s">
+      <x:c r="E5" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="E5" s="0" t="s">
+      <x:c r="F5" s="0" t="s">
         <x:v>25</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="D6" s="0" t="s">
+      <x:c r="E6" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="E6" s="0" t="s">
+      <x:c r="F6" s="0" t="s">
         <x:v>29</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
         <x:v>31</x:v>
@@ -641,7 +650,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
         <x:v>35</x:v>
@@ -650,7 +659,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
         <x:v>37</x:v>
@@ -658,22 +667,42 @@
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="s">
+      <x:c r="D9" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D9" s="0" t="s">
+      <x:c r="E9" s="0" t="s">
         <x:v>40</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="s">
-        <x:v>21</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
         <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:6">
+      <x:c r="A10" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
